--- a/biology/Botanique/Trèfle_des_prés/Trèfle_des_prés.xlsx
+++ b/biology/Botanique/Trèfle_des_prés/Trèfle_des_prés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_des_pr%C3%A9s</t>
+          <t>Trèfle_des_prés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium pratense
-Trifolium pratense, le trèfle violet[2] ou trèfle des prés, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Eurasie et d'Afrique du Nord.
+Trifolium pratense, le trèfle violet ou trèfle des prés, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Eurasie et d'Afrique du Nord.
 Ce sont des plantes herbacées vivaces pouvant atteindre 80 cm de haut, largement cultivées comme plante fourragère dans les régions tempérées des différents continents.
 Cette espèce botanique est à l'origine des nombreuses variétés fourragères de trèfle violet cultivé.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_des_pr%C3%A9s</t>
+          <t>Trèfle_des_prés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Trèfle, trèfle commun, trèfle rouge, herbe à vache, trèfle pourpre, trèfle d'Espagne, trèfle rose, trèfle violet, trèfle des prés[3],[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trèfle, trèfle commun, trèfle rouge, herbe à vache, trèfle pourpre, trèfle d'Espagne, trèfle rose, trèfle violet, trèfle des prés,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_des_pr%C3%A9s</t>
+          <t>Trèfle_des_prés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,175 +558,540 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trèfle des prés est une plante herbacée de 5 à 50 cm de haut, velue, dressée ou ascendante. Sa durée de vie est de 2 à 3 ans.
-Feuilles
-Les feuilles sont formées de trois folioles elliptiques à ovales, à marge entière, vertes avec en général un croissant blanchâtre caractéristique. Les feuilles supérieures sont opposées et subsessiles. Les stipules sont largement triangulaires, terminées en pointe.
-Fleurs
-Les fleurs, rosées au sommet, blanchâtres à la base, sont disposées en grosses têtes globuleuses. Le calice est formé d'un tube velu à 10 nervures prolongé par 5 dents ciliées, dont une est plus longue que les autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont formées de trois folioles elliptiques à ovales, à marge entière, vertes avec en général un croissant blanchâtre caractéristique. Les feuilles supérieures sont opposées et subsessiles. Les stipules sont largement triangulaires, terminées en pointe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, rosées au sommet, blanchâtres à la base, sont disposées en grosses têtes globuleuses. Le calice est formé d'un tube velu à 10 nervures prolongé par 5 dents ciliées, dont une est plus longue que les autres.
 La floraison s'étend de mai à septembre et sur une période encore plus longue dans le sud de la France.
 	inflorescences du trèfle des prés
 			Détail
 			Trèfle des prés blanc.
-Fruits
-Le fruit est une petite gousse de 3 à 10 mm.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite gousse de 3 à 10 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connu et apprécié depuis l'antiquité, le trèfle violet cultivé est probablement originaire d'Espagne[2]. Il est commun dans différents pays d'Europe et dans toute la France métropolitaine en particulier. C'est une des principales espèces fourragères en Scandinavie, au Canada, mais il est également présent sur le pourtour du Bassin méditerranéen[5]. Il a été développé plus récemment de manière importante en Amérique et en Australie dans les zones tempérées humides.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connu et apprécié depuis l'antiquité, le trèfle violet cultivé est probablement originaire d'Espagne. Il est commun dans différents pays d'Europe et dans toute la France métropolitaine en particulier. C'est une des principales espèces fourragères en Scandinavie, au Canada, mais il est également présent sur le pourtour du Bassin méditerranéen. Il a été développé plus récemment de manière importante en Amérique et en Australie dans les zones tempérées humides.
 L'espèce se rencontre dans les bois clairs, les lisières, les cultures, les prés et les forêts. Elle résiste bien au froid et peut être cultivée en altitude.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (12 août 2018)[6] :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 août 2018) :
 Trifolium borysthenicum Gruner
 Trifolium bracteatum Schousb.
 Trifolium lenkoranicum (Grossh.)Roskov
 Trifolium pratense var. lenkoranicum Grossh.
-Trifolium ukrainicum Opperman
-Liste des variétés
-Selon The Plant List            (12 août 2018)[1] :
+Trifolium ukrainicum Opperman</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (12 août 2018) :
 Trifolium pratense var. americanum Harz
 Trifolium pratense var. maritimum Zabel
 Trifolium pratense var. sativum Schreb.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Il est généralement cultivé en association avec une graminée comme le ray-grass d'Italie ou le ray-grass hybride dans les prairies temporaires sur sols acides[7]. En Europe du Nord et au Canada on rencontre plutôt l'association avec la fléole des prés. 
-Il est possible de réaliser trois ou quatre coupes par an pour ensilage, enrubannage ou foin, bien qu'il soit difficile à sécher[8]. 
-Variétés cultivées
-Les principaux caractères améliorés ont été la pérennité, notamment par la résistance à des maladies telles que la sclérotiniose  (Sclerotinia trifoliorum), le rhizoctone violet (Rhizoctonia violacea), l'oïdium (Erysiphe trifolii), et le nématode des tiges (Ditylenchus dipsaci), le rendement, l'aptitude à l'association avec des graminées fourragères. La tétraploïdisation a joué un rôle important pour ces objectifs[2].
-Près de 30 variétés sont inscrites au Catalogue officiel des espèces et variétés[9] créées par 12 entreprises de sélection et plus de 200 sont inscrites au Catalogue européen [10]. 
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est généralement cultivé en association avec une graminée comme le ray-grass d'Italie ou le ray-grass hybride dans les prairies temporaires sur sols acides. En Europe du Nord et au Canada on rencontre plutôt l'association avec la fléole des prés. 
+Il est possible de réaliser trois ou quatre coupes par an pour ensilage, enrubannage ou foin, bien qu'il soit difficile à sécher. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Variétés cultivées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les principaux caractères améliorés ont été la pérennité, notamment par la résistance à des maladies telles que la sclérotiniose  (Sclerotinia trifoliorum), le rhizoctone violet (Rhizoctonia violacea), l'oïdium (Erysiphe trifolii), et le nématode des tiges (Ditylenchus dipsaci), le rendement, l'aptitude à l'association avec des graminées fourragères. La tétraploïdisation a joué un rôle important pour ces objectifs.
+Près de 30 variétés sont inscrites au Catalogue officiel des espèces et variétés créées par 12 entreprises de sélection et plus de 200 sont inscrites au Catalogue européen . 
 Quelques variétés anciennes et récentes cultivées en France : 
 diploïdes : Lucrum, Alpilles, Violetta RVP, etc. Diadem, Dimanche, Diper, Divin, Formica, Jonas, Karim, Mercury ...
 tétraploïdes : Tetri, Temara, Tédi ... Amos, Atlantis, etc.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante fourragère
-Il peut être utilisé en pâture,  en ensilage[2] et en foin, bien qu'il soit difficile à sécher[8]. Météorisant, il doit être pâturé avec précaution.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plante fourragère</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être utilisé en pâture,  en ensilage et en foin, bien qu'il soit difficile à sécher. Météorisant, il doit être pâturé avec précaution.
 C'est un fourrage d'excellente qualité très apprécié et très digestible, très riche en protéines.
-Sa valeur alimentaire comme fourrage vert 1er cycle, début floraison, en g/kg MS[11] : MAT : 166 ; UFL : 0,81 ; UFV : 0,74 ; PDIN : 106 ; PDIE : 86.
-Engrais vert
-Le trèfle des près est aussi cultivé comme engrais vert pour enrichir les sols en azote[12].
-Plante mellifère
-Comme la plupart des légumineuses prairiales, il est très mellifère et sa floraison dure.
-Plante comestible
-Le trèfle est une plante comestible. Les feuilles, sans le pétiole un peu coriace, sont bonnes crues en salades ou cuites comme légume. Leur saveur est douce et agréable. Les inflorescences s'ajoutent aux salades ou aux desserts. Les enfants jouent parfois à sucer les fleurs afin de profiter du nectar que les fleurs libèrent au soleil. Séchées et pulvérisées, on mélangeait parfois ces fleurs à la farine pour faire du pain[13].
-On peut en moudre les graines pour en faire de la farine ou les faire germer pour un apport supplémentaire en vitamines[14].
-Plante médicinale
-Le trèfle des prés est aussi une plante médicinale[15] riche en phytoestrogènes (isoflavones), utilisée contre les symptômes liés à la ménopause (mais des études cliniques sont encore nécessaires). 
-Traditionnellement utilisée contre les diarrhées, la toux et les éruptions cutanées chroniques, l'infusion de trèfle des prés est dépurative et rafraîchissante pour les yeux fatigués[14]. Les inflorescences sont dépuratives, diurétiques et cholagogues. Les têtes florales peuvent être appliquées par voie externe pour apaiser des affections cutanées (brûlures, eczéma)[16].  Elles sont aussi parfois utilisées dans les médicaments contre les affections de la gorge car elles ont un effet apaisant.
-Plante-emblème
-Le trèfle des près est la fleur officielle de l'État du Vermont, aux États-Unis[17].
+Sa valeur alimentaire comme fourrage vert 1er cycle, début floraison, en g/kg MS : MAT : 166 ; UFL : 0,81 ; UFV : 0,74 ; PDIN : 106 ; PDIE : 86.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Engrais vert</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trèfle des près est aussi cultivé comme engrais vert pour enrichir les sols en azote.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Plante mellifère</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des légumineuses prairiales, il est très mellifère et sa floraison dure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Plante comestible</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trèfle est une plante comestible. Les feuilles, sans le pétiole un peu coriace, sont bonnes crues en salades ou cuites comme légume. Leur saveur est douce et agréable. Les inflorescences s'ajoutent aux salades ou aux desserts. Les enfants jouent parfois à sucer les fleurs afin de profiter du nectar que les fleurs libèrent au soleil. Séchées et pulvérisées, on mélangeait parfois ces fleurs à la farine pour faire du pain.
+On peut en moudre les graines pour en faire de la farine ou les faire germer pour un apport supplémentaire en vitamines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Plante médicinale</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trèfle des prés est aussi une plante médicinale riche en phytoestrogènes (isoflavones), utilisée contre les symptômes liés à la ménopause (mais des études cliniques sont encore nécessaires). 
+Traditionnellement utilisée contre les diarrhées, la toux et les éruptions cutanées chroniques, l'infusion de trèfle des prés est dépurative et rafraîchissante pour les yeux fatigués. Les inflorescences sont dépuratives, diurétiques et cholagogues. Les têtes florales peuvent être appliquées par voie externe pour apaiser des affections cutanées (brûlures, eczéma).  Elles sont aussi parfois utilisées dans les médicaments contre les affections de la gorge car elles ont un effet apaisant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Trèfle_des_prés</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Plante-emblème</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trèfle des près est la fleur officielle de l'État du Vermont, aux États-Unis.
 </t>
         </is>
       </c>
